--- a/Информация о проходах/Голубев А. Н..xlsx
+++ b/Информация о проходах/Голубев А. Н..xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>Неконтролируемая территория</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-22 10:57:06</t>
+          <t>2024-07-01 16:52:25</t>
         </is>
       </c>
     </row>
@@ -476,44 +476,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Турникеты № 1+2</t>
+          <t>Неконтролируемая территория</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-22 10:57:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Голубев А. Н.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Сторож (вахтер)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Служба безопасности</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Турникеты № 1+2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>КПП производства</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-05-22 10:58:14</t>
+          <t>2024-07-01 16:52:33</t>
         </is>
       </c>
     </row>
